--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1263410.823284014</v>
+        <v>1261523.241767612</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800617</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>327.7725728859739</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>194.7001067806287</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>12.53317060717033</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>72.01792537524109</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>24.08852816170446</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>77.16235765948245</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>54.47555601903385</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>97.64711324991042</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>240.0466310358073</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>169.0167291702125</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>101.6257152931843</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560521</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>53.98383637884856</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1585,16 +1585,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>33.35146980185843</v>
       </c>
     </row>
     <row r="14">
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>161.8350885124333</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>195.5840668773365</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>166.4704758913032</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>36.43938522532562</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>169.7438101404422</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>217.4237851495048</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>279.2427635650253</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>204.1291651532048</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>25.34051740972793</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>42.20569823125397</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523571</v>
+        <v>54.76109577523578</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789644</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.5129866402885</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1719.57858496549</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1346.11282670441</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1346.11282670441</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4407,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>686.0522967699853</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>686.0522967699853</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>458.7441094385871</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>458.7441094385871</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>204.0596212327002</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>204.0596212327002</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>204.0596212327002</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>211.6471865296039</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1606.020605349451</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C5" t="n">
-        <v>1237.058088409039</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>878.7923898022884</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036446</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224079</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2672.817244390239</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2496.639756704409</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2278.005089676471</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X5" t="n">
-        <v>1992.620445413572</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.620445413572</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.806220357135</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036446</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406186</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406186</v>
+        <v>336.276983312403</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406186</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="U7" t="n">
-        <v>502.0405502269999</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="V7" t="n">
-        <v>502.0405502269999</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="W7" t="n">
-        <v>502.0405502269999</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="X7" t="n">
-        <v>502.0405502269999</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.2479710834698</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>402.0066065949742</v>
+        <v>1040.216121848823</v>
       </c>
       <c r="C8" t="n">
-        <v>402.0066065949742</v>
+        <v>671.253604908411</v>
       </c>
       <c r="D8" t="n">
-        <v>402.0066065949742</v>
+        <v>312.9879063016605</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>312.9879063016605</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>306.0424055524571</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2236.043079509672</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>1904.980192166102</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>1552.211536895988</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>1178.745778634908</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y8" t="n">
-        <v>788.606446659096</v>
+        <v>1426.815961912944</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>304.5083130726407</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>224.666950679165</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>224.666950679165</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005476</v>
+        <v>224.666950679165</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005476</v>
+        <v>224.666950679165</v>
       </c>
       <c r="Y10" t="n">
-        <v>473.4444960005476</v>
+        <v>224.666950679165</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,40 +5024,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5121,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M12" t="n">
-        <v>1236.836466556558</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>2041.248044820708</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O12" t="n">
-        <v>2320.788110039405</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>468.5954956259884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>299.6593126980815</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>299.6593126980815</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>151.7462191156884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>151.7462191156884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>151.7462191156884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609664</v>
+        <v>420.322614832457</v>
       </c>
       <c r="W13" t="n">
-        <v>696.5850465240057</v>
+        <v>130.9054447954964</v>
       </c>
       <c r="X13" t="n">
-        <v>468.5954956259884</v>
+        <v>130.9054447954964</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.5954956259884</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5267,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5358,22 +5358,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141288</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.725741678162</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>846.3978353108171</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,13 +5437,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473454</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687012</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687012</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>846.3978353108171</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>846.3978353108171</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>846.3978353108171</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
         <v>488.1932370805469</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,16 +5531,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5589,7 +5589,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5598,16 +5598,16 @@
         <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>1026.505047571597</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1503.408902298185</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N18" t="n">
-        <v>1833.271529962218</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O18" t="n">
-        <v>2112.811595180915</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
         <v>2317.834075963124</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1301.356607045441</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1301.356607045441</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U19" t="n">
-        <v>1012.227968258999</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V19" t="n">
-        <v>757.5434800531123</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="W19" t="n">
-        <v>468.1263100161517</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X19" t="n">
-        <v>468.1263100161517</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.3337308726216</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,46 +5735,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>2227.840212610278</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2432.862693392488</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>600.2296059587557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5938,22 +5938,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.867621687013</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>1009.867621687013</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>781.8780707889954</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y22" t="n">
-        <v>781.8780707889954</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5966,52 +5966,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>584.4452354807078</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>415.5090525528009</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404651</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404651</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404651</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>985.7136853104473</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>766.0937003109475</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>766.0937003109475</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6212,64 +6212,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
         <v>358.2718071316295</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>1026.505047571597</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M27" t="n">
-        <v>1396.107276203138</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N27" t="n">
-        <v>1725.969903867171</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>2005.509969085868</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6339,7 +6339,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="V28" t="n">
-        <v>755.1831334811262</v>
+        <v>531.3977182706312</v>
       </c>
       <c r="W28" t="n">
-        <v>473.1197359406962</v>
+        <v>531.3977182706312</v>
       </c>
       <c r="X28" t="n">
-        <v>245.1301850426789</v>
+        <v>303.4081673726139</v>
       </c>
       <c r="Y28" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6440,28 +6440,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6473,19 +6473,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>367.4730644165944</v>
+        <v>400.2445180358627</v>
       </c>
       <c r="L30" t="n">
-        <v>614.2381923230585</v>
+        <v>1014.141587792751</v>
       </c>
       <c r="M30" t="n">
-        <v>921.55832560302</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N30" t="n">
-        <v>1725.969903867171</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O30" t="n">
-        <v>2005.509969085868</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P30" t="n">
         <v>2525.810590821615</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542186</v>
+        <v>439.5324299542174</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076824</v>
+        <v>326.3571123076812</v>
       </c>
       <c r="D31" t="n">
-        <v>300.760630075634</v>
+        <v>232.0013381767162</v>
       </c>
       <c r="E31" t="n">
-        <v>300.760630075634</v>
+        <v>139.8491098756939</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590945</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818933</v>
+        <v>902.6804289818924</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652468</v>
+        <v>730.4517433652458</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030874</v>
+        <v>565.4200295030864</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6780,25 +6780,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110834</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229681</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506735</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083215</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504522</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103139</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,7 +6856,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045216</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010325</v>
       </c>
     </row>
     <row r="35">
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>474.7746905116418</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>721.5398184181058</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1028.859951698067</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962218</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108316</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229659</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506714</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083194</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504502</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
@@ -7111,34 +7111,34 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025261</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859415</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862495</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045191</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010301</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7172,10 +7172,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7199,25 +7199,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7260,19 +7260,19 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>857.5427825698953</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229679</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083212</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504519</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7391,31 +7391,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N42" t="n">
-        <v>1908.095276920732</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506722</v>
@@ -7555,10 +7555,10 @@
         <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,25 +7567,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384657</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>242.5343297994526</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>391.6040140015125</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>638.3691419079765</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300438</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,10 +8070,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028829</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>398.9629823660896</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,25 +9006,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>306.1147370139962</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,19 +9246,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>171.2966883299264</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>223.6742649934478</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>369.0893880493733</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.6241510367949</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9717,13 +9717,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>43.65987261462527</v>
+        <v>189.0022427662467</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298479</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="M27" t="n">
-        <v>62.91120742583809</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10191,22 +10191,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>80.50021372615265</v>
+        <v>113.6026921294539</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10428,28 +10428,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>306.1147370139962</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>188.8856946302408</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.8856946302409</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,16 +10674,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>39.88923345256785</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10908,22 +10908,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>15.83804904622866</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>274.3657496970643</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11139,19 +11139,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>52.49733361305235</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>134.4977453535108</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>32.92248665775651</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>94.92999198868756</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>185.2331835502364</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>124.6879098241577</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>2.336743106266709</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>120.0525224452878</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>130.8074358733022</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644335</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,22 +24412,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338577</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>8.285870239532358</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229313</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>7.280234771565696</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>14.45548819889007</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.07169897992733</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>48.01209316312028</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>93.71057173897913</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>55.21598883571497</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>959856.5572667966</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="10">
@@ -26317,43 +26317,43 @@
         <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="F2" t="n">
+        <v>430131.9657114797</v>
+      </c>
+      <c r="G2" t="n">
         <v>430131.9657114798</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>430131.9657114798</v>
+      </c>
+      <c r="I2" t="n">
+        <v>430131.9657114796</v>
+      </c>
+      <c r="J2" t="n">
         <v>430131.9657114797</v>
       </c>
-      <c r="H2" t="n">
-        <v>430131.9657114797</v>
-      </c>
-      <c r="I2" t="n">
-        <v>430131.9657114798</v>
-      </c>
-      <c r="J2" t="n">
-        <v>430131.9657114798</v>
-      </c>
       <c r="K2" t="n">
-        <v>447504.3510797971</v>
+        <v>447504.3510797973</v>
       </c>
       <c r="L2" t="n">
-        <v>451572.9734253563</v>
+        <v>451572.9734253562</v>
       </c>
       <c r="M2" t="n">
         <v>451572.9734253563</v>
       </c>
       <c r="N2" t="n">
-        <v>451572.9734253561</v>
+        <v>451572.9734253562</v>
       </c>
       <c r="O2" t="n">
-        <v>451572.9734253563</v>
+        <v>451572.9734253562</v>
       </c>
       <c r="P2" t="n">
-        <v>451572.9734253562</v>
+        <v>451572.9734253564</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284565</v>
+        <v>44162.60530284563</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086686</v>
+        <v>10342.90680086694</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687078</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687066</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106727</v>
+        <v>40339.23010106722</v>
       </c>
       <c r="L4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
-      <c r="M4" t="n">
-        <v>44593.39482819119</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>44593.39482819121</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>44593.3948281912</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340947</v>
@@ -26485,22 +26485,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-386886.8516391225</v>
+        <v>-386886.8516391224</v>
       </c>
       <c r="C6" t="n">
+        <v>203081.027575422</v>
+      </c>
+      <c r="D6" t="n">
         <v>203081.0275754221</v>
       </c>
-      <c r="D6" t="n">
-        <v>203081.0275754222</v>
-      </c>
       <c r="E6" t="n">
-        <v>-209190.0043010038</v>
+        <v>-209287.4634269759</v>
       </c>
       <c r="F6" t="n">
-        <v>315970.0321758924</v>
+        <v>315872.5730499202</v>
       </c>
       <c r="G6" t="n">
-        <v>315970.0321758924</v>
+        <v>315872.5730499202</v>
       </c>
       <c r="H6" t="n">
-        <v>315970.0321758924</v>
+        <v>315872.5730499203</v>
       </c>
       <c r="I6" t="n">
-        <v>315970.0321758924</v>
+        <v>315872.5730499201</v>
       </c>
       <c r="J6" t="n">
-        <v>139546.8129832994</v>
+        <v>139449.3538573272</v>
       </c>
       <c r="K6" t="n">
-        <v>266374.3071456614</v>
+        <v>266355.8134077273</v>
       </c>
       <c r="L6" t="n">
-        <v>298921.5659762729</v>
+        <v>298921.5659762727</v>
       </c>
       <c r="M6" t="n">
         <v>174463.4575433026</v>
       </c>
       <c r="N6" t="n">
-        <v>309264.4727771395</v>
+        <v>309264.4727771396</v>
       </c>
       <c r="O6" t="n">
-        <v>309264.4727771397</v>
+        <v>309264.4727771396</v>
       </c>
       <c r="P6" t="n">
-        <v>265101.867474294</v>
+        <v>265101.8674742942</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,19 +26750,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26771,10 +26771,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26932,16 +26932,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108357</v>
+        <v>12.92863350108367</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>54.96126877750669</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>154.5408619367843</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>11.18263959690384</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>134.1320213729875</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,10 +27591,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>309.9124446970207</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>30.38987441310725</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>209.1195165824953</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>171.2340993700033</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>316.1370567708846</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>11.17753647248202</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>10.81525101172477</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>46.98975772502806</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.463149601477198e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,43 +31282,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>327.2930933377847</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>709.3873594165558</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>616.5391140644624</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>642.8663885318339</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>481.7210653803926</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>506.0379672345559</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.689756130333</v>
@@ -36200,10 +36200,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>618.3470930053976</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36218,7 +36218,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>192.637183821869</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>354.0842496650915</v>
+        <v>499.426619816713</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>340.4953046390457</v>
       </c>
       <c r="M27" t="n">
-        <v>373.3355844763043</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
@@ -36695,7 +36695,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187475</v>
@@ -36832,16 +36832,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>231.0756523140919</v>
+        <v>264.1781307173932</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>616.5391140644624</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>395.9791095617654</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>339.4611332181801</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37394,16 +37394,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>373.0838068505807</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>10.73738595686864</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>326.2624260966949</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>481.459164628589</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>203.0727722009916</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>416.8614475946189</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>146.7850892314816</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>315.2861888988646</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
